--- a/Documentation/EMBEDDED_C_TEST_CASES.xlsx
+++ b/Documentation/EMBEDDED_C_TEST_CASES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SEP4\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9ABF9C-6888-4C7B-B4AA-27DB1FDD25A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B3ACA-CBC8-4BAC-8BCD-56BF895776C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9204" xr2:uid="{64617202-8209-44B2-9C58-5E035E64D300}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="79">
   <si>
     <t>TCID</t>
   </si>
@@ -370,9 +370,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -383,9 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,6 +392,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F9326C-F294-41E1-B5D5-D0D99F05327B}">
-  <dimension ref="B1:L47"/>
+  <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,421 +733,422 @@
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
     <col min="13" max="13" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>13</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1159,117 +1160,117 @@
       <c r="D24" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>14</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>15</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>16</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1279,493 +1280,451 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="34" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>23</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>27</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>28</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
         <v>29</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
-        <v>18</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
-        <v>19</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B38" s="3">
-        <v>21</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
-        <v>22</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="3">
-        <v>23</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="3">
-        <v>24</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B42" s="3">
-        <v>25</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
-        <v>26</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B44" s="3">
-        <v>27</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
-        <v>28</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>29</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="7" t="s">
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B47" s="7">
+      <c r="K46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
         <v>30</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="7" t="s">
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
